--- a/Base/Teams/Packers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Packers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Packers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Packers/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Packers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Packers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Packers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Packers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>6</v>

--- a/Base/Teams/Packers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Packers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>10</v>
